--- a/registro_coletas.xlsx
+++ b/registro_coletas.xlsx
@@ -31,13 +31,13 @@
     <t>Exames</t>
   </si>
   <si>
-    <t>confirmar resultado</t>
-  </si>
-  <si>
-    <t>789</t>
-  </si>
-  <si>
-    <t>654</t>
+    <t>hemolise</t>
+  </si>
+  <si>
+    <t>25899898-00 pd789878</t>
+  </si>
+  <si>
+    <t>588889</t>
   </si>
   <si>
     <t>potassio</t>
@@ -427,7 +427,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45100</v>
+        <v>45103</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
